--- a/40000-60000.xlsx
+++ b/40000-60000.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="72">
   <si>
     <t>CVR</t>
   </si>
@@ -31,6 +31,12 @@
     <t>Opsagt dato:</t>
   </si>
   <si>
+    <t>Årsag</t>
+  </si>
+  <si>
+    <t>Ny leverandør</t>
+  </si>
+  <si>
     <t>TCV_range</t>
   </si>
   <si>
@@ -170,6 +176,57 @@
   </si>
   <si>
     <t>Visma Løn (Fehmarn Belt Contractors I/S)</t>
+  </si>
+  <si>
+    <t>Strategisk beslutning</t>
+  </si>
+  <si>
+    <t>Outsourcing af lønnen (anden leverandør)</t>
+  </si>
+  <si>
+    <t>Ikke oplyst</t>
+  </si>
+  <si>
+    <t>Fusionerer med anden virksomhed</t>
+  </si>
+  <si>
+    <t>Anden årsag (angiv hvilken i bemærkninger)</t>
+  </si>
+  <si>
+    <t>Utilfredshed (Service - uddyb i bemærkninger)</t>
+  </si>
+  <si>
+    <t>Systemet (uddyb i bemærkninger)</t>
+  </si>
+  <si>
+    <t>Pris</t>
+  </si>
+  <si>
+    <t>Virksomheden lukker</t>
+  </si>
+  <si>
+    <t>Ikke flere medarbejdere i virksomheden</t>
+  </si>
+  <si>
+    <t>Bruger ikke produktet</t>
+  </si>
+  <si>
+    <t>Vil ikke oplyse</t>
+  </si>
+  <si>
+    <t>Lessor</t>
+  </si>
+  <si>
+    <t>Corp System</t>
+  </si>
+  <si>
+    <t>Zenegy</t>
+  </si>
+  <si>
+    <t>Salary</t>
+  </si>
+  <si>
+    <t>DataLøn</t>
   </si>
   <si>
     <t>40000-60000</t>
@@ -534,13 +591,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -559,10 +616,16 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>2021</v>
@@ -571,18 +634,21 @@
         <v>52126.72</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E2" s="2">
         <v>44209</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>54</v>
+      </c>
+      <c r="H2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>2021</v>
@@ -591,18 +657,24 @@
         <v>50524.99</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E3" s="2">
         <v>44217</v>
       </c>
       <c r="F3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>2021</v>
@@ -611,18 +683,24 @@
         <v>59748.16</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E4" s="2">
         <v>44229</v>
       </c>
       <c r="F4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>54</v>
+      </c>
+      <c r="G4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>2021</v>
@@ -631,18 +709,21 @@
         <v>48008.41</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E5" s="2">
         <v>44279</v>
       </c>
       <c r="F5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>56</v>
+      </c>
+      <c r="H5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>2021</v>
@@ -651,18 +732,21 @@
         <v>42997.07</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E6" s="2">
         <v>44299</v>
       </c>
       <c r="F6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>57</v>
+      </c>
+      <c r="H6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>2021</v>
@@ -671,18 +755,21 @@
         <v>51618.2</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E7" s="2">
         <v>44315</v>
       </c>
       <c r="F7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>56</v>
+      </c>
+      <c r="H7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>2021</v>
@@ -691,18 +778,21 @@
         <v>51608.6</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E8" s="2">
         <v>44368</v>
       </c>
       <c r="F8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>56</v>
+      </c>
+      <c r="H8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>2021</v>
@@ -711,18 +801,21 @@
         <v>49192.74</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E9" s="2">
         <v>44375</v>
       </c>
       <c r="F9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>56</v>
+      </c>
+      <c r="H9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B10">
         <v>2021</v>
@@ -731,18 +824,24 @@
         <v>47508</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E10" s="2">
         <v>44376</v>
       </c>
       <c r="F10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>58</v>
+      </c>
+      <c r="G10" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B11">
         <v>2021</v>
@@ -751,18 +850,21 @@
         <v>48167</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E11" s="2">
         <v>44376</v>
       </c>
       <c r="F11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>56</v>
+      </c>
+      <c r="H11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B12">
         <v>2021</v>
@@ -771,18 +873,24 @@
         <v>48600</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E12" s="2">
         <v>44371</v>
       </c>
       <c r="F12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>59</v>
+      </c>
+      <c r="G12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B13">
         <v>2021</v>
@@ -791,18 +899,21 @@
         <v>54307</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E13" s="2">
         <v>44382</v>
       </c>
       <c r="F13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>58</v>
+      </c>
+      <c r="H13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B14">
         <v>2021</v>
@@ -811,18 +922,21 @@
         <v>59696</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E14" s="2">
         <v>44531</v>
       </c>
       <c r="F14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>56</v>
+      </c>
+      <c r="H14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>2021</v>
@@ -831,18 +945,21 @@
         <v>55692.36</v>
       </c>
       <c r="D15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E15" s="2">
         <v>44540</v>
       </c>
       <c r="F15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>56</v>
+      </c>
+      <c r="H15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B16">
         <v>2021</v>
@@ -851,18 +968,21 @@
         <v>58860</v>
       </c>
       <c r="D16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E16" s="2">
         <v>44553</v>
       </c>
       <c r="F16" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>60</v>
+      </c>
+      <c r="H16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>2022</v>
@@ -871,18 +991,24 @@
         <v>44529.04</v>
       </c>
       <c r="D17" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E17" s="2">
         <v>44583</v>
       </c>
       <c r="F17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>61</v>
+      </c>
+      <c r="G17" t="s">
+        <v>69</v>
+      </c>
+      <c r="H17" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>2022</v>
@@ -891,18 +1017,21 @@
         <v>44071.91</v>
       </c>
       <c r="D18" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E18" s="2">
         <v>44593</v>
       </c>
       <c r="F18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>56</v>
+      </c>
+      <c r="H18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B19">
         <v>2022</v>
@@ -911,18 +1040,21 @@
         <v>59444.88</v>
       </c>
       <c r="D19" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E19" s="2">
         <v>44600</v>
       </c>
       <c r="F19" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>56</v>
+      </c>
+      <c r="H19" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B20">
         <v>2022</v>
@@ -931,18 +1063,21 @@
         <v>46500</v>
       </c>
       <c r="D20" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E20" s="2">
         <v>44637</v>
       </c>
       <c r="F20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="H20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B21">
         <v>2022</v>
@@ -951,18 +1086,21 @@
         <v>50075</v>
       </c>
       <c r="D21" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E21" s="2">
         <v>44645</v>
       </c>
       <c r="F21" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>63</v>
+      </c>
+      <c r="H21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>2022</v>
@@ -971,18 +1109,21 @@
         <v>44929.04</v>
       </c>
       <c r="D22" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E22" s="2">
         <v>44655</v>
       </c>
       <c r="F22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>63</v>
+      </c>
+      <c r="H22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>2022</v>
@@ -991,18 +1132,21 @@
         <v>58657</v>
       </c>
       <c r="D23" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E23" s="2">
         <v>44685</v>
       </c>
       <c r="F23" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>58</v>
+      </c>
+      <c r="H23" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B24">
         <v>2022</v>
@@ -1011,18 +1155,21 @@
         <v>44851</v>
       </c>
       <c r="D24" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E24" s="2">
         <v>44719</v>
       </c>
       <c r="F24" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>61</v>
+      </c>
+      <c r="H24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B25">
         <v>2022</v>
@@ -1031,18 +1178,21 @@
         <v>41918.41</v>
       </c>
       <c r="D25" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E25" s="2">
         <v>44742</v>
       </c>
       <c r="F25" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>56</v>
+      </c>
+      <c r="H25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B26">
         <v>2022</v>
@@ -1051,18 +1201,21 @@
         <v>53378.16</v>
       </c>
       <c r="D26" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E26" s="2">
         <v>44749</v>
       </c>
       <c r="F26" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>56</v>
+      </c>
+      <c r="H26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>2022</v>
@@ -1071,18 +1224,21 @@
         <v>40191.95</v>
       </c>
       <c r="D27" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E27" s="2">
         <v>44753</v>
       </c>
       <c r="F27" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>56</v>
+      </c>
+      <c r="H27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B28">
         <v>2022</v>
@@ -1091,18 +1247,21 @@
         <v>57060</v>
       </c>
       <c r="D28" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E28" s="2">
         <v>44784</v>
       </c>
       <c r="F28" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>57</v>
+      </c>
+      <c r="H28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B29">
         <v>2022</v>
@@ -1111,18 +1270,21 @@
         <v>48312</v>
       </c>
       <c r="D29" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E29" s="2">
         <v>44833</v>
       </c>
       <c r="F29" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>60</v>
+      </c>
+      <c r="H29" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B30">
         <v>2022</v>
@@ -1131,18 +1293,21 @@
         <v>47117</v>
       </c>
       <c r="D30" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E30" s="2">
         <v>44862</v>
       </c>
       <c r="F30" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>62</v>
+      </c>
+      <c r="H30" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B31">
         <v>2022</v>
@@ -1151,18 +1316,21 @@
         <v>42583</v>
       </c>
       <c r="D31" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E31" s="2">
         <v>44872</v>
       </c>
       <c r="F31" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>61</v>
+      </c>
+      <c r="H31" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B32">
         <v>2022</v>
@@ -1171,18 +1339,21 @@
         <v>44550</v>
       </c>
       <c r="D32" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E32" s="2">
         <v>44894</v>
       </c>
       <c r="F32" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>58</v>
+      </c>
+      <c r="H32" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B33">
         <v>2022</v>
@@ -1191,18 +1362,21 @@
         <v>50482.04</v>
       </c>
       <c r="D33" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E33" s="2">
         <v>44831</v>
       </c>
       <c r="F33" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>58</v>
+      </c>
+      <c r="H33" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B34">
         <v>2023</v>
@@ -1211,18 +1385,24 @@
         <v>52852.17</v>
       </c>
       <c r="D34" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E34" s="2">
         <v>44936</v>
       </c>
       <c r="F34" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>56</v>
+      </c>
+      <c r="G34" t="s">
+        <v>70</v>
+      </c>
+      <c r="H34" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>2023</v>
@@ -1231,18 +1411,21 @@
         <v>58165</v>
       </c>
       <c r="D35" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E35" s="2">
         <v>45009</v>
       </c>
       <c r="F35" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>54</v>
+      </c>
+      <c r="H35" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B36">
         <v>2023</v>
@@ -1251,13 +1434,16 @@
         <v>57600</v>
       </c>
       <c r="D36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E36" s="2">
         <v>45072</v>
       </c>
       <c r="F36" t="s">
-        <v>52</v>
+        <v>64</v>
+      </c>
+      <c r="H36" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/40000-60000.xlsx
+++ b/40000-60000.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="87">
   <si>
     <t>CVR</t>
   </si>
@@ -37,6 +37,9 @@
     <t>Ny leverandør</t>
   </si>
   <si>
+    <t>Quarter</t>
+  </si>
+  <si>
     <t>TCV_range</t>
   </si>
   <si>
@@ -145,6 +148,15 @@
     <t>34082200</t>
   </si>
   <si>
+    <t>55164711</t>
+  </si>
+  <si>
+    <t>17089234</t>
+  </si>
+  <si>
+    <t>29975884</t>
+  </si>
+  <si>
     <t>BPO Visma Løn og HR</t>
   </si>
   <si>
@@ -208,9 +220,6 @@
     <t>Ikke flere medarbejdere i virksomheden</t>
   </si>
   <si>
-    <t>Bruger ikke produktet</t>
-  </si>
-  <si>
     <t>Vil ikke oplyse</t>
   </si>
   <si>
@@ -227,6 +236,42 @@
   </si>
   <si>
     <t>DataLøn</t>
+  </si>
+  <si>
+    <t>Jobindex</t>
+  </si>
+  <si>
+    <t>2021Q1</t>
+  </si>
+  <si>
+    <t>2021Q2</t>
+  </si>
+  <si>
+    <t>2021Q3</t>
+  </si>
+  <si>
+    <t>2021Q4</t>
+  </si>
+  <si>
+    <t>2022Q1</t>
+  </si>
+  <si>
+    <t>2022Q2</t>
+  </si>
+  <si>
+    <t>2022Q3</t>
+  </si>
+  <si>
+    <t>2022Q4</t>
+  </si>
+  <si>
+    <t>2023Q1</t>
+  </si>
+  <si>
+    <t>2023Q2</t>
+  </si>
+  <si>
+    <t>2023Q3</t>
   </si>
   <si>
     <t>40000-60000</t>
@@ -591,13 +636,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -622,10 +667,13 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>2021</v>
@@ -634,21 +682,24 @@
         <v>52126.72</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E2" s="2">
         <v>44209</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="I2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>2021</v>
@@ -657,24 +708,27 @@
         <v>50524.99</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E3" s="2">
         <v>44217</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="I3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>2021</v>
@@ -683,24 +737,27 @@
         <v>59748.16</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E4" s="2">
         <v>44229</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="I4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>2021</v>
@@ -709,21 +766,24 @@
         <v>48008.41</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E5" s="2">
         <v>44279</v>
       </c>
       <c r="F5" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="I5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6">
         <v>2021</v>
@@ -732,21 +792,24 @@
         <v>42997.07</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E6" s="2">
         <v>44299</v>
       </c>
       <c r="F6" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7">
         <v>2021</v>
@@ -755,21 +818,24 @@
         <v>51618.2</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E7" s="2">
         <v>44315</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8">
         <v>2021</v>
@@ -778,21 +844,24 @@
         <v>51608.6</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E8" s="2">
         <v>44368</v>
       </c>
       <c r="F8" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9">
         <v>2021</v>
@@ -801,21 +870,24 @@
         <v>49192.74</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E9" s="2">
         <v>44375</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10">
         <v>2021</v>
@@ -824,24 +896,27 @@
         <v>47508</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E10" s="2">
         <v>44376</v>
       </c>
       <c r="F10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G10" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B11">
         <v>2021</v>
@@ -850,21 +925,24 @@
         <v>48167</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E11" s="2">
         <v>44376</v>
       </c>
       <c r="F11" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12">
         <v>2021</v>
@@ -873,24 +951,27 @@
         <v>48600</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E12" s="2">
         <v>44371</v>
       </c>
       <c r="F12" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G12" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H12" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13">
         <v>2021</v>
@@ -899,21 +980,24 @@
         <v>54307</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E13" s="2">
         <v>44382</v>
       </c>
       <c r="F13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>77</v>
+      </c>
+      <c r="I13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14">
         <v>2021</v>
@@ -922,21 +1006,24 @@
         <v>59696</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E14" s="2">
         <v>44531</v>
       </c>
       <c r="F14" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>2021</v>
@@ -945,21 +1032,24 @@
         <v>55692.36</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E15" s="2">
         <v>44540</v>
       </c>
       <c r="F15" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H15" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16">
         <v>2021</v>
@@ -968,21 +1058,24 @@
         <v>58860</v>
       </c>
       <c r="D16" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E16" s="2">
         <v>44553</v>
       </c>
       <c r="F16" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>2022</v>
@@ -991,24 +1084,27 @@
         <v>44529.04</v>
       </c>
       <c r="D17" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E17" s="2">
         <v>44583</v>
       </c>
       <c r="F17" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G17" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H17" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>79</v>
+      </c>
+      <c r="I17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>2022</v>
@@ -1017,21 +1113,24 @@
         <v>44071.91</v>
       </c>
       <c r="D18" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E18" s="2">
         <v>44593</v>
       </c>
       <c r="F18" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H18" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>79</v>
+      </c>
+      <c r="I18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B19">
         <v>2022</v>
@@ -1040,21 +1139,24 @@
         <v>59444.88</v>
       </c>
       <c r="D19" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E19" s="2">
         <v>44600</v>
       </c>
       <c r="F19" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>79</v>
+      </c>
+      <c r="I19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B20">
         <v>2022</v>
@@ -1063,21 +1165,24 @@
         <v>46500</v>
       </c>
       <c r="D20" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E20" s="2">
         <v>44637</v>
       </c>
       <c r="F20" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="H20" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>79</v>
+      </c>
+      <c r="I20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B21">
         <v>2022</v>
@@ -1086,21 +1191,24 @@
         <v>50075</v>
       </c>
       <c r="D21" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E21" s="2">
         <v>44645</v>
       </c>
       <c r="F21" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H21" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>79</v>
+      </c>
+      <c r="I21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>2022</v>
@@ -1109,21 +1217,24 @@
         <v>44929.04</v>
       </c>
       <c r="D22" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E22" s="2">
         <v>44655</v>
       </c>
       <c r="F22" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H22" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="I22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>2022</v>
@@ -1132,21 +1243,24 @@
         <v>58657</v>
       </c>
       <c r="D23" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E23" s="2">
         <v>44685</v>
       </c>
       <c r="F23" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H23" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="I23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B24">
         <v>2022</v>
@@ -1155,21 +1269,24 @@
         <v>44851</v>
       </c>
       <c r="D24" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E24" s="2">
         <v>44719</v>
       </c>
       <c r="F24" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="H24" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="I24" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B25">
         <v>2022</v>
@@ -1178,21 +1295,24 @@
         <v>41918.41</v>
       </c>
       <c r="D25" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E25" s="2">
         <v>44742</v>
       </c>
       <c r="F25" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H25" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="I25" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B26">
         <v>2022</v>
@@ -1201,21 +1321,24 @@
         <v>53378.16</v>
       </c>
       <c r="D26" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E26" s="2">
         <v>44749</v>
       </c>
       <c r="F26" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H26" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>81</v>
+      </c>
+      <c r="I26" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B27">
         <v>2022</v>
@@ -1224,21 +1347,24 @@
         <v>40191.95</v>
       </c>
       <c r="D27" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E27" s="2">
         <v>44753</v>
       </c>
       <c r="F27" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="H27" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>81</v>
+      </c>
+      <c r="I27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B28">
         <v>2022</v>
@@ -1247,21 +1373,24 @@
         <v>57060</v>
       </c>
       <c r="D28" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E28" s="2">
         <v>44784</v>
       </c>
       <c r="F28" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="H28" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>81</v>
+      </c>
+      <c r="I28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B29">
         <v>2022</v>
@@ -1270,21 +1399,24 @@
         <v>48312</v>
       </c>
       <c r="D29" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E29" s="2">
         <v>44833</v>
       </c>
       <c r="F29" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H29" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>81</v>
+      </c>
+      <c r="I29" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B30">
         <v>2022</v>
@@ -1293,21 +1425,24 @@
         <v>47117</v>
       </c>
       <c r="D30" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E30" s="2">
         <v>44862</v>
       </c>
       <c r="F30" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="H30" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I30" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B31">
         <v>2022</v>
@@ -1316,21 +1451,24 @@
         <v>42583</v>
       </c>
       <c r="D31" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E31" s="2">
         <v>44872</v>
       </c>
       <c r="F31" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="H31" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I31" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B32">
         <v>2022</v>
@@ -1339,21 +1477,24 @@
         <v>44550</v>
       </c>
       <c r="D32" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E32" s="2">
         <v>44894</v>
       </c>
       <c r="F32" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H32" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I32" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B33">
         <v>2022</v>
@@ -1362,21 +1503,24 @@
         <v>50482.04</v>
       </c>
       <c r="D33" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E33" s="2">
         <v>44831</v>
       </c>
       <c r="F33" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="H33" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>81</v>
+      </c>
+      <c r="I33" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B34">
         <v>2023</v>
@@ -1385,24 +1529,24 @@
         <v>52852.17</v>
       </c>
       <c r="D34" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E34" s="2">
         <v>44936</v>
       </c>
-      <c r="F34" t="s">
-        <v>56</v>
-      </c>
       <c r="G34" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H34" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I34" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>2023</v>
@@ -1411,21 +1555,21 @@
         <v>58165</v>
       </c>
       <c r="D35" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E35" s="2">
         <v>45009</v>
       </c>
-      <c r="F35" t="s">
-        <v>54</v>
-      </c>
       <c r="H35" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>83</v>
+      </c>
+      <c r="I35" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B36">
         <v>2023</v>
@@ -1434,16 +1578,88 @@
         <v>57600</v>
       </c>
       <c r="D36" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E36" s="2">
         <v>45072</v>
       </c>
-      <c r="F36" t="s">
-        <v>64</v>
-      </c>
       <c r="H36" t="s">
-        <v>71</v>
+        <v>84</v>
+      </c>
+      <c r="I36" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37">
+        <v>2023</v>
+      </c>
+      <c r="C37">
+        <v>46106</v>
+      </c>
+      <c r="D37" t="s">
+        <v>49</v>
+      </c>
+      <c r="E37" s="2">
+        <v>45091</v>
+      </c>
+      <c r="H37" t="s">
+        <v>84</v>
+      </c>
+      <c r="I37" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38">
+        <v>2023</v>
+      </c>
+      <c r="C38">
+        <v>44064</v>
+      </c>
+      <c r="D38" t="s">
+        <v>50</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45092</v>
+      </c>
+      <c r="H38" t="s">
+        <v>84</v>
+      </c>
+      <c r="I38" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39">
+        <v>2023</v>
+      </c>
+      <c r="C39">
+        <v>44547</v>
+      </c>
+      <c r="D39" t="s">
+        <v>50</v>
+      </c>
+      <c r="E39" s="2">
+        <v>45177</v>
+      </c>
+      <c r="G39" t="s">
+        <v>74</v>
+      </c>
+      <c r="H39" t="s">
+        <v>85</v>
+      </c>
+      <c r="I39" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/40000-60000.xlsx
+++ b/40000-60000.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="90">
   <si>
     <t>CVR</t>
   </si>
@@ -157,6 +157,12 @@
     <t>29975884</t>
   </si>
   <si>
+    <t>13893179</t>
+  </si>
+  <si>
+    <t>32762646</t>
+  </si>
+  <si>
     <t>BPO Visma Løn og HR</t>
   </si>
   <si>
@@ -272,6 +278,9 @@
   </si>
   <si>
     <t>2023Q3</t>
+  </si>
+  <si>
+    <t>2023Q4</t>
   </si>
   <si>
     <t>40000-60000</t>
@@ -636,7 +645,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -682,19 +691,19 @@
         <v>52126.72</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E2" s="2">
         <v>44209</v>
       </c>
       <c r="F2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -708,22 +717,22 @@
         <v>50524.99</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E3" s="2">
         <v>44217</v>
       </c>
       <c r="F3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -737,22 +746,22 @@
         <v>59748.16</v>
       </c>
       <c r="D4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E4" s="2">
         <v>44229</v>
       </c>
       <c r="F4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -766,19 +775,19 @@
         <v>48008.41</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E5" s="2">
         <v>44279</v>
       </c>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -792,19 +801,19 @@
         <v>42997.07</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E6" s="2">
         <v>44299</v>
       </c>
       <c r="F6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I6" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -818,19 +827,19 @@
         <v>51618.2</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E7" s="2">
         <v>44315</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -844,19 +853,19 @@
         <v>51608.6</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E8" s="2">
         <v>44368</v>
       </c>
       <c r="F8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I8" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -870,19 +879,19 @@
         <v>49192.74</v>
       </c>
       <c r="D9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E9" s="2">
         <v>44375</v>
       </c>
       <c r="F9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I9" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -896,22 +905,22 @@
         <v>47508</v>
       </c>
       <c r="D10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E10" s="2">
         <v>44376</v>
       </c>
       <c r="F10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I10" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -925,19 +934,19 @@
         <v>48167</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E11" s="2">
         <v>44376</v>
       </c>
       <c r="F11" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I11" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -951,22 +960,22 @@
         <v>48600</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E12" s="2">
         <v>44371</v>
       </c>
       <c r="F12" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G12" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H12" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I12" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -980,19 +989,19 @@
         <v>54307</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E13" s="2">
         <v>44382</v>
       </c>
       <c r="F13" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I13" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1006,19 +1015,19 @@
         <v>59696</v>
       </c>
       <c r="D14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E14" s="2">
         <v>44531</v>
       </c>
       <c r="F14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I14" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1032,19 +1041,19 @@
         <v>55692.36</v>
       </c>
       <c r="D15" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E15" s="2">
         <v>44540</v>
       </c>
       <c r="F15" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H15" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I15" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1058,19 +1067,19 @@
         <v>58860</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E16" s="2">
         <v>44553</v>
       </c>
       <c r="F16" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H16" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I16" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1084,22 +1093,22 @@
         <v>44529.04</v>
       </c>
       <c r="D17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E17" s="2">
         <v>44583</v>
       </c>
       <c r="F17" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G17" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H17" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I17" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1113,19 +1122,19 @@
         <v>44071.91</v>
       </c>
       <c r="D18" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E18" s="2">
         <v>44593</v>
       </c>
       <c r="F18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H18" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I18" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1139,19 +1148,19 @@
         <v>59444.88</v>
       </c>
       <c r="D19" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E19" s="2">
         <v>44600</v>
       </c>
       <c r="F19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H19" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I19" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1165,19 +1174,19 @@
         <v>46500</v>
       </c>
       <c r="D20" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E20" s="2">
         <v>44637</v>
       </c>
       <c r="F20" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H20" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I20" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1191,19 +1200,19 @@
         <v>50075</v>
       </c>
       <c r="D21" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E21" s="2">
         <v>44645</v>
       </c>
       <c r="F21" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H21" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I21" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1217,19 +1226,19 @@
         <v>44929.04</v>
       </c>
       <c r="D22" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E22" s="2">
         <v>44655</v>
       </c>
       <c r="F22" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H22" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I22" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1243,19 +1252,19 @@
         <v>58657</v>
       </c>
       <c r="D23" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E23" s="2">
         <v>44685</v>
       </c>
       <c r="F23" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H23" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I23" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1269,19 +1278,19 @@
         <v>44851</v>
       </c>
       <c r="D24" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E24" s="2">
         <v>44719</v>
       </c>
       <c r="F24" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H24" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I24" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1295,19 +1304,19 @@
         <v>41918.41</v>
       </c>
       <c r="D25" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E25" s="2">
         <v>44742</v>
       </c>
       <c r="F25" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H25" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I25" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1321,19 +1330,19 @@
         <v>53378.16</v>
       </c>
       <c r="D26" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E26" s="2">
         <v>44749</v>
       </c>
       <c r="F26" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H26" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I26" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1347,19 +1356,19 @@
         <v>40191.95</v>
       </c>
       <c r="D27" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E27" s="2">
         <v>44753</v>
       </c>
       <c r="F27" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H27" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I27" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1373,19 +1382,19 @@
         <v>57060</v>
       </c>
       <c r="D28" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E28" s="2">
         <v>44784</v>
       </c>
       <c r="F28" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H28" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I28" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1399,19 +1408,19 @@
         <v>48312</v>
       </c>
       <c r="D29" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E29" s="2">
         <v>44833</v>
       </c>
       <c r="F29" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H29" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I29" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1425,19 +1434,19 @@
         <v>47117</v>
       </c>
       <c r="D30" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E30" s="2">
         <v>44862</v>
       </c>
       <c r="F30" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H30" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I30" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1451,19 +1460,19 @@
         <v>42583</v>
       </c>
       <c r="D31" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E31" s="2">
         <v>44872</v>
       </c>
       <c r="F31" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H31" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I31" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1477,19 +1486,19 @@
         <v>44550</v>
       </c>
       <c r="D32" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E32" s="2">
         <v>44894</v>
       </c>
       <c r="F32" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H32" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I32" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1503,19 +1512,19 @@
         <v>50482.04</v>
       </c>
       <c r="D33" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E33" s="2">
         <v>44831</v>
       </c>
       <c r="F33" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H33" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I33" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1529,19 +1538,19 @@
         <v>52852.17</v>
       </c>
       <c r="D34" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E34" s="2">
         <v>44936</v>
       </c>
       <c r="G34" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H34" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I34" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1555,16 +1564,16 @@
         <v>58165</v>
       </c>
       <c r="D35" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E35" s="2">
         <v>45009</v>
       </c>
       <c r="H35" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I35" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1578,16 +1587,16 @@
         <v>57600</v>
       </c>
       <c r="D36" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E36" s="2">
         <v>45072</v>
       </c>
       <c r="H36" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I36" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1601,16 +1610,16 @@
         <v>46106</v>
       </c>
       <c r="D37" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E37" s="2">
         <v>45091</v>
       </c>
       <c r="H37" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I37" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1624,16 +1633,16 @@
         <v>44064</v>
       </c>
       <c r="D38" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E38" s="2">
         <v>45092</v>
       </c>
       <c r="H38" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I38" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1647,19 +1656,68 @@
         <v>44547</v>
       </c>
       <c r="D39" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E39" s="2">
         <v>45177</v>
       </c>
       <c r="G39" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H39" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I39" t="s">
-        <v>86</v>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40">
+        <v>2023</v>
+      </c>
+      <c r="C40">
+        <v>40172</v>
+      </c>
+      <c r="D40" t="s">
+        <v>51</v>
+      </c>
+      <c r="E40" s="2">
+        <v>45243</v>
+      </c>
+      <c r="G40" t="s">
+        <v>73</v>
+      </c>
+      <c r="H40" t="s">
+        <v>88</v>
+      </c>
+      <c r="I40" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41">
+        <v>2023</v>
+      </c>
+      <c r="C41">
+        <v>40892</v>
+      </c>
+      <c r="D41" t="s">
+        <v>52</v>
+      </c>
+      <c r="E41" s="2">
+        <v>45272</v>
+      </c>
+      <c r="H41" t="s">
+        <v>88</v>
+      </c>
+      <c r="I41" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/40000-60000.xlsx
+++ b/40000-60000.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="105">
   <si>
     <t>CVR</t>
   </si>
@@ -163,6 +163,42 @@
     <t>32762646</t>
   </si>
   <si>
+    <t>30510518</t>
+  </si>
+  <si>
+    <t>30972406</t>
+  </si>
+  <si>
+    <t>21825832</t>
+  </si>
+  <si>
+    <t>15516046</t>
+  </si>
+  <si>
+    <t>39525984</t>
+  </si>
+  <si>
+    <t>46481410</t>
+  </si>
+  <si>
+    <t>14036431</t>
+  </si>
+  <si>
+    <t>12759274</t>
+  </si>
+  <si>
+    <t>56577815</t>
+  </si>
+  <si>
+    <t>77144714</t>
+  </si>
+  <si>
+    <t>43268570</t>
+  </si>
+  <si>
+    <t>61552812</t>
+  </si>
+  <si>
     <t>BPO Visma Løn og HR</t>
   </si>
   <si>
@@ -281,6 +317,15 @@
   </si>
   <si>
     <t>2023Q4</t>
+  </si>
+  <si>
+    <t>2024Q1</t>
+  </si>
+  <si>
+    <t>2024Q2</t>
+  </si>
+  <si>
+    <t>2024Q3</t>
   </si>
   <si>
     <t>40000-60000</t>
@@ -645,7 +690,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I41"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -691,19 +736,19 @@
         <v>52126.72</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E2" s="2">
         <v>44209</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="H2" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -717,22 +762,22 @@
         <v>50524.99</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E3" s="2">
         <v>44217</v>
       </c>
       <c r="F3" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="G3" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="H3" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I3" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -746,22 +791,22 @@
         <v>59748.16</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E4" s="2">
         <v>44229</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="G4" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="H4" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I4" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -775,19 +820,19 @@
         <v>48008.41</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E5" s="2">
         <v>44279</v>
       </c>
       <c r="F5" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="H5" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="I5" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -801,19 +846,19 @@
         <v>42997.07</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E6" s="2">
         <v>44299</v>
       </c>
       <c r="F6" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="H6" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="I6" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -827,19 +872,19 @@
         <v>51618.2</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E7" s="2">
         <v>44315</v>
       </c>
       <c r="F7" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="H7" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="I7" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -853,19 +898,19 @@
         <v>51608.6</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="E8" s="2">
         <v>44368</v>
       </c>
       <c r="F8" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="H8" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="I8" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -879,19 +924,19 @@
         <v>49192.74</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="E9" s="2">
         <v>44375</v>
       </c>
       <c r="F9" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="H9" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="I9" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -905,22 +950,22 @@
         <v>47508</v>
       </c>
       <c r="D10" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="E10" s="2">
         <v>44376</v>
       </c>
       <c r="F10" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="G10" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="H10" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="I10" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -934,19 +979,19 @@
         <v>48167</v>
       </c>
       <c r="D11" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="E11" s="2">
         <v>44376</v>
       </c>
       <c r="F11" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="H11" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="I11" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -960,22 +1005,22 @@
         <v>48600</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="E12" s="2">
         <v>44371</v>
       </c>
       <c r="F12" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="G12" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="H12" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="I12" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -989,19 +1034,19 @@
         <v>54307</v>
       </c>
       <c r="D13" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="E13" s="2">
         <v>44382</v>
       </c>
       <c r="F13" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="H13" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I13" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1015,19 +1060,19 @@
         <v>59696</v>
       </c>
       <c r="D14" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="E14" s="2">
         <v>44531</v>
       </c>
       <c r="F14" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="H14" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I14" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1041,19 +1086,19 @@
         <v>55692.36</v>
       </c>
       <c r="D15" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="E15" s="2">
         <v>44540</v>
       </c>
       <c r="F15" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="H15" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I15" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1067,19 +1112,19 @@
         <v>58860</v>
       </c>
       <c r="D16" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="E16" s="2">
         <v>44553</v>
       </c>
       <c r="F16" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="H16" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I16" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1093,22 +1138,22 @@
         <v>44529.04</v>
       </c>
       <c r="D17" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="E17" s="2">
         <v>44583</v>
       </c>
       <c r="F17" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="G17" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="H17" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="I17" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1122,19 +1167,19 @@
         <v>44071.91</v>
       </c>
       <c r="D18" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="E18" s="2">
         <v>44593</v>
       </c>
       <c r="F18" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="H18" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="I18" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1148,19 +1193,19 @@
         <v>59444.88</v>
       </c>
       <c r="D19" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E19" s="2">
         <v>44600</v>
       </c>
       <c r="F19" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="H19" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="I19" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1174,19 +1219,19 @@
         <v>46500</v>
       </c>
       <c r="D20" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="E20" s="2">
         <v>44637</v>
       </c>
       <c r="F20" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="H20" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="I20" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1200,19 +1245,19 @@
         <v>50075</v>
       </c>
       <c r="D21" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E21" s="2">
         <v>44645</v>
       </c>
       <c r="F21" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="H21" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="I21" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1226,19 +1271,19 @@
         <v>44929.04</v>
       </c>
       <c r="D22" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="E22" s="2">
         <v>44655</v>
       </c>
       <c r="F22" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="H22" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I22" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1252,19 +1297,19 @@
         <v>58657</v>
       </c>
       <c r="D23" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="E23" s="2">
         <v>44685</v>
       </c>
       <c r="F23" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="H23" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I23" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1278,19 +1323,19 @@
         <v>44851</v>
       </c>
       <c r="D24" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="E24" s="2">
         <v>44719</v>
       </c>
       <c r="F24" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="H24" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I24" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1304,19 +1349,19 @@
         <v>41918.41</v>
       </c>
       <c r="D25" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="E25" s="2">
         <v>44742</v>
       </c>
       <c r="F25" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="H25" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I25" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1330,19 +1375,19 @@
         <v>53378.16</v>
       </c>
       <c r="D26" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="E26" s="2">
         <v>44749</v>
       </c>
       <c r="F26" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="H26" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="I26" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1356,19 +1401,19 @@
         <v>40191.95</v>
       </c>
       <c r="D27" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="E27" s="2">
         <v>44753</v>
       </c>
       <c r="F27" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="H27" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="I27" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1382,19 +1427,19 @@
         <v>57060</v>
       </c>
       <c r="D28" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="E28" s="2">
         <v>44784</v>
       </c>
       <c r="F28" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="H28" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="I28" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1408,19 +1453,19 @@
         <v>48312</v>
       </c>
       <c r="D29" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="E29" s="2">
         <v>44833</v>
       </c>
       <c r="F29" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="H29" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="I29" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1434,19 +1479,19 @@
         <v>47117</v>
       </c>
       <c r="D30" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="E30" s="2">
         <v>44862</v>
       </c>
       <c r="F30" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="H30" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="I30" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1460,19 +1505,19 @@
         <v>42583</v>
       </c>
       <c r="D31" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="E31" s="2">
         <v>44872</v>
       </c>
       <c r="F31" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="H31" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="I31" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1486,19 +1531,19 @@
         <v>44550</v>
       </c>
       <c r="D32" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="E32" s="2">
         <v>44894</v>
       </c>
       <c r="F32" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="H32" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="I32" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1512,19 +1557,19 @@
         <v>50482.04</v>
       </c>
       <c r="D33" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="E33" s="2">
         <v>44831</v>
       </c>
       <c r="F33" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="H33" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="I33" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1538,19 +1583,19 @@
         <v>52852.17</v>
       </c>
       <c r="D34" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="E34" s="2">
         <v>44936</v>
       </c>
       <c r="G34" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="H34" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="I34" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1564,16 +1609,16 @@
         <v>58165</v>
       </c>
       <c r="D35" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="E35" s="2">
         <v>45009</v>
       </c>
       <c r="H35" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="I35" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1587,16 +1632,16 @@
         <v>57600</v>
       </c>
       <c r="D36" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="E36" s="2">
         <v>45072</v>
       </c>
       <c r="H36" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="I36" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1610,16 +1655,16 @@
         <v>46106</v>
       </c>
       <c r="D37" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="E37" s="2">
         <v>45091</v>
       </c>
       <c r="H37" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="I37" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1633,16 +1678,16 @@
         <v>44064</v>
       </c>
       <c r="D38" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="E38" s="2">
         <v>45092</v>
       </c>
       <c r="H38" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="I38" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1656,19 +1701,19 @@
         <v>44547</v>
       </c>
       <c r="D39" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="E39" s="2">
         <v>45177</v>
       </c>
       <c r="G39" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="H39" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="I39" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1682,19 +1727,19 @@
         <v>40172</v>
       </c>
       <c r="D40" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="E40" s="2">
         <v>45243</v>
       </c>
       <c r="G40" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="H40" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="I40" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1708,16 +1753,295 @@
         <v>40892</v>
       </c>
       <c r="D41" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="E41" s="2">
         <v>45272</v>
       </c>
       <c r="H41" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="I41" t="s">
-        <v>89</v>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42">
+        <v>2024</v>
+      </c>
+      <c r="C42">
+        <v>40925</v>
+      </c>
+      <c r="D42" t="s">
+        <v>63</v>
+      </c>
+      <c r="E42" s="2">
+        <v>45301</v>
+      </c>
+      <c r="H42" t="s">
+        <v>101</v>
+      </c>
+      <c r="I42" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43">
+        <v>2024</v>
+      </c>
+      <c r="C43">
+        <v>59316</v>
+      </c>
+      <c r="D43" t="s">
+        <v>66</v>
+      </c>
+      <c r="E43" s="2">
+        <v>45345</v>
+      </c>
+      <c r="H43" t="s">
+        <v>101</v>
+      </c>
+      <c r="I43" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" t="s">
+        <v>51</v>
+      </c>
+      <c r="B44">
+        <v>2024</v>
+      </c>
+      <c r="C44">
+        <v>47491.62</v>
+      </c>
+      <c r="D44" t="s">
+        <v>63</v>
+      </c>
+      <c r="E44" s="2">
+        <v>45370</v>
+      </c>
+      <c r="H44" t="s">
+        <v>101</v>
+      </c>
+      <c r="I44" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45">
+        <v>2024</v>
+      </c>
+      <c r="C45">
+        <v>50892</v>
+      </c>
+      <c r="D45" t="s">
+        <v>64</v>
+      </c>
+      <c r="E45" s="2">
+        <v>45400</v>
+      </c>
+      <c r="H45" t="s">
+        <v>102</v>
+      </c>
+      <c r="I45" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46">
+        <v>2024</v>
+      </c>
+      <c r="C46">
+        <v>40956</v>
+      </c>
+      <c r="D46" t="s">
+        <v>68</v>
+      </c>
+      <c r="E46" s="2">
+        <v>45329</v>
+      </c>
+      <c r="H46" t="s">
+        <v>101</v>
+      </c>
+      <c r="I46" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47">
+        <v>2024</v>
+      </c>
+      <c r="C47">
+        <v>59832</v>
+      </c>
+      <c r="D47" t="s">
+        <v>63</v>
+      </c>
+      <c r="E47" s="2">
+        <v>45446</v>
+      </c>
+      <c r="H47" t="s">
+        <v>102</v>
+      </c>
+      <c r="I47" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48">
+        <v>2024</v>
+      </c>
+      <c r="C48">
+        <v>50400</v>
+      </c>
+      <c r="D48" t="s">
+        <v>63</v>
+      </c>
+      <c r="E48" s="2">
+        <v>45447</v>
+      </c>
+      <c r="G48" t="s">
+        <v>85</v>
+      </c>
+      <c r="H48" t="s">
+        <v>102</v>
+      </c>
+      <c r="I48" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" t="s">
+        <v>56</v>
+      </c>
+      <c r="B49">
+        <v>2024</v>
+      </c>
+      <c r="C49">
+        <v>55116</v>
+      </c>
+      <c r="D49" t="s">
+        <v>63</v>
+      </c>
+      <c r="E49" s="2">
+        <v>45488</v>
+      </c>
+      <c r="H49" t="s">
+        <v>103</v>
+      </c>
+      <c r="I49" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" t="s">
+        <v>57</v>
+      </c>
+      <c r="B50">
+        <v>2024</v>
+      </c>
+      <c r="C50">
+        <v>41460</v>
+      </c>
+      <c r="D50" t="s">
+        <v>64</v>
+      </c>
+      <c r="E50" s="2">
+        <v>45516</v>
+      </c>
+      <c r="H50" t="s">
+        <v>103</v>
+      </c>
+      <c r="I50" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51">
+        <v>2024</v>
+      </c>
+      <c r="C51">
+        <v>40152</v>
+      </c>
+      <c r="D51" t="s">
+        <v>63</v>
+      </c>
+      <c r="E51" s="2">
+        <v>45467</v>
+      </c>
+      <c r="H51" t="s">
+        <v>102</v>
+      </c>
+      <c r="I51" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52">
+        <v>2024</v>
+      </c>
+      <c r="C52">
+        <v>49752</v>
+      </c>
+      <c r="D52" t="s">
+        <v>68</v>
+      </c>
+      <c r="E52" s="2">
+        <v>45526</v>
+      </c>
+      <c r="H52" t="s">
+        <v>103</v>
+      </c>
+      <c r="I52" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" t="s">
+        <v>60</v>
+      </c>
+      <c r="B53">
+        <v>2024</v>
+      </c>
+      <c r="C53">
+        <v>53700</v>
+      </c>
+      <c r="D53" t="s">
+        <v>68</v>
+      </c>
+      <c r="E53" s="2">
+        <v>45546</v>
+      </c>
+      <c r="H53" t="s">
+        <v>103</v>
+      </c>
+      <c r="I53" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/40000-60000.xlsx
+++ b/40000-60000.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="112">
   <si>
     <t>CVR</t>
   </si>
@@ -52,6 +52,9 @@
     <t>32318975</t>
   </si>
   <si>
+    <t>-2147483648</t>
+  </si>
+  <si>
     <t>32786308</t>
   </si>
   <si>
@@ -142,6 +145,9 @@
     <t>21582387</t>
   </si>
   <si>
+    <t>1273433733</t>
+  </si>
+  <si>
     <t>18788799</t>
   </si>
   <si>
@@ -154,6 +160,9 @@
     <t>17089234</t>
   </si>
   <si>
+    <t>1265938366</t>
+  </si>
+  <si>
     <t>29975884</t>
   </si>
   <si>
@@ -175,6 +184,9 @@
     <t>15516046</t>
   </si>
   <si>
+    <t>1296968681</t>
+  </si>
+  <si>
     <t>39525984</t>
   </si>
   <si>
@@ -205,6 +217,9 @@
     <t>Visma Løn og HR</t>
   </si>
   <si>
+    <t>SKL SE</t>
+  </si>
+  <si>
     <t>Visma Løn</t>
   </si>
   <si>
@@ -268,6 +283,9 @@
     <t>Lessor</t>
   </si>
   <si>
+    <t>Azets</t>
+  </si>
+  <si>
     <t>Corp System</t>
   </si>
   <si>
@@ -281,6 +299,9 @@
   </si>
   <si>
     <t>Jobindex</t>
+  </si>
+  <si>
+    <t>Bakertilly</t>
   </si>
   <si>
     <t>2021Q1</t>
@@ -690,7 +711,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -736,19 +757,19 @@
         <v>52126.72</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E2" s="2">
         <v>44209</v>
       </c>
       <c r="F2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H2" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="I2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -762,22 +783,22 @@
         <v>50524.99</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E3" s="2">
         <v>44217</v>
       </c>
       <c r="F3" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G3" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="H3" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="I3" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -791,22 +812,22 @@
         <v>59748.16</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E4" s="2">
         <v>44229</v>
       </c>
       <c r="F4" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="H4" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="I4" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -817,22 +838,25 @@
         <v>2021</v>
       </c>
       <c r="C5">
-        <v>48008.41</v>
+        <v>56812.75</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E5" s="2">
-        <v>44279</v>
+        <v>44235</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>77</v>
+      </c>
+      <c r="G5" t="s">
+        <v>89</v>
       </c>
       <c r="H5" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="I5" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -843,22 +867,22 @@
         <v>2021</v>
       </c>
       <c r="C6">
-        <v>42997.07</v>
+        <v>48008.41</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E6" s="2">
-        <v>44299</v>
+        <v>44279</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H6" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="I6" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -869,22 +893,22 @@
         <v>2021</v>
       </c>
       <c r="C7">
-        <v>51618.2</v>
+        <v>42997.07</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E7" s="2">
-        <v>44315</v>
+        <v>44299</v>
       </c>
       <c r="F7" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H7" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="I7" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -895,22 +919,22 @@
         <v>2021</v>
       </c>
       <c r="C8">
-        <v>51608.6</v>
+        <v>51618.2</v>
       </c>
       <c r="D8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E8" s="2">
-        <v>44368</v>
+        <v>44315</v>
       </c>
       <c r="F8" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="I8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -921,22 +945,22 @@
         <v>2021</v>
       </c>
       <c r="C9">
-        <v>49192.74</v>
+        <v>51608.6</v>
       </c>
       <c r="D9" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E9" s="2">
-        <v>44375</v>
+        <v>44368</v>
       </c>
       <c r="F9" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H9" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="I9" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -947,25 +971,22 @@
         <v>2021</v>
       </c>
       <c r="C10">
-        <v>47508</v>
+        <v>49192.74</v>
       </c>
       <c r="D10" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E10" s="2">
-        <v>44376</v>
+        <v>44375</v>
       </c>
       <c r="F10" t="s">
-        <v>76</v>
-      </c>
-      <c r="G10" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="H10" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="I10" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -976,22 +997,25 @@
         <v>2021</v>
       </c>
       <c r="C11">
-        <v>48167</v>
+        <v>47508</v>
       </c>
       <c r="D11" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E11" s="2">
         <v>44376</v>
       </c>
       <c r="F11" t="s">
-        <v>74</v>
+        <v>81</v>
+      </c>
+      <c r="G11" t="s">
+        <v>90</v>
       </c>
       <c r="H11" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="I11" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1002,25 +1026,22 @@
         <v>2021</v>
       </c>
       <c r="C12">
-        <v>48600</v>
+        <v>48167</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E12" s="2">
-        <v>44371</v>
+        <v>44376</v>
       </c>
       <c r="F12" t="s">
-        <v>77</v>
-      </c>
-      <c r="G12" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="H12" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="I12" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1031,22 +1052,25 @@
         <v>2021</v>
       </c>
       <c r="C13">
-        <v>54307</v>
+        <v>48600</v>
       </c>
       <c r="D13" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="E13" s="2">
-        <v>44382</v>
+        <v>44371</v>
       </c>
       <c r="F13" t="s">
-        <v>76</v>
+        <v>82</v>
+      </c>
+      <c r="G13" t="s">
+        <v>91</v>
       </c>
       <c r="H13" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="I13" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1057,22 +1081,22 @@
         <v>2021</v>
       </c>
       <c r="C14">
-        <v>59696</v>
+        <v>54307</v>
       </c>
       <c r="D14" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E14" s="2">
-        <v>44531</v>
+        <v>44382</v>
       </c>
       <c r="F14" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H14" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="I14" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1083,22 +1107,22 @@
         <v>2021</v>
       </c>
       <c r="C15">
-        <v>55692.36</v>
+        <v>59696</v>
       </c>
       <c r="D15" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E15" s="2">
-        <v>44540</v>
+        <v>44531</v>
       </c>
       <c r="F15" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H15" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="I15" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1109,22 +1133,22 @@
         <v>2021</v>
       </c>
       <c r="C16">
-        <v>58860</v>
+        <v>55692.36</v>
       </c>
       <c r="D16" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E16" s="2">
-        <v>44553</v>
+        <v>44540</v>
       </c>
       <c r="F16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H16" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="I16" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1132,28 +1156,25 @@
         <v>24</v>
       </c>
       <c r="B17">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C17">
-        <v>44529.04</v>
+        <v>58860</v>
       </c>
       <c r="D17" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E17" s="2">
-        <v>44583</v>
+        <v>44553</v>
       </c>
       <c r="F17" t="s">
-        <v>79</v>
-      </c>
-      <c r="G17" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H17" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="I17" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1164,22 +1185,25 @@
         <v>2022</v>
       </c>
       <c r="C18">
-        <v>44071.91</v>
+        <v>44529.04</v>
       </c>
       <c r="D18" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E18" s="2">
-        <v>44593</v>
+        <v>44583</v>
       </c>
       <c r="F18" t="s">
-        <v>74</v>
+        <v>84</v>
+      </c>
+      <c r="G18" t="s">
+        <v>92</v>
       </c>
       <c r="H18" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="I18" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1190,22 +1214,22 @@
         <v>2022</v>
       </c>
       <c r="C19">
-        <v>59444.88</v>
+        <v>44071.91</v>
       </c>
       <c r="D19" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E19" s="2">
-        <v>44600</v>
+        <v>44593</v>
       </c>
       <c r="F19" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H19" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="I19" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1216,22 +1240,22 @@
         <v>2022</v>
       </c>
       <c r="C20">
-        <v>46500</v>
+        <v>59444.88</v>
       </c>
       <c r="D20" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E20" s="2">
-        <v>44637</v>
+        <v>44600</v>
       </c>
       <c r="F20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H20" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="I20" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1242,22 +1266,22 @@
         <v>2022</v>
       </c>
       <c r="C21">
-        <v>50075</v>
+        <v>46500</v>
       </c>
       <c r="D21" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E21" s="2">
-        <v>44645</v>
+        <v>44637</v>
       </c>
       <c r="F21" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H21" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="I21" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1268,22 +1292,22 @@
         <v>2022</v>
       </c>
       <c r="C22">
-        <v>44929.04</v>
+        <v>50075</v>
       </c>
       <c r="D22" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E22" s="2">
-        <v>44655</v>
+        <v>44645</v>
       </c>
       <c r="F22" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H22" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="I22" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1294,22 +1318,22 @@
         <v>2022</v>
       </c>
       <c r="C23">
-        <v>58657</v>
+        <v>44929.04</v>
       </c>
       <c r="D23" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E23" s="2">
-        <v>44685</v>
+        <v>44655</v>
       </c>
       <c r="F23" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H23" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="I23" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1320,22 +1344,22 @@
         <v>2022</v>
       </c>
       <c r="C24">
-        <v>44851</v>
+        <v>58657</v>
       </c>
       <c r="D24" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E24" s="2">
-        <v>44719</v>
+        <v>44685</v>
       </c>
       <c r="F24" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H24" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="I24" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1346,22 +1370,22 @@
         <v>2022</v>
       </c>
       <c r="C25">
-        <v>41918.41</v>
+        <v>44851</v>
       </c>
       <c r="D25" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E25" s="2">
-        <v>44742</v>
+        <v>44719</v>
       </c>
       <c r="F25" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="H25" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="I25" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1372,22 +1396,22 @@
         <v>2022</v>
       </c>
       <c r="C26">
-        <v>53378.16</v>
+        <v>41918.41</v>
       </c>
       <c r="D26" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E26" s="2">
-        <v>44749</v>
+        <v>44742</v>
       </c>
       <c r="F26" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H26" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="I26" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1398,22 +1422,22 @@
         <v>2022</v>
       </c>
       <c r="C27">
-        <v>40191.95</v>
+        <v>53378.16</v>
       </c>
       <c r="D27" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E27" s="2">
-        <v>44753</v>
+        <v>44749</v>
       </c>
       <c r="F27" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H27" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="I27" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1424,22 +1448,22 @@
         <v>2022</v>
       </c>
       <c r="C28">
-        <v>57060</v>
+        <v>40191.95</v>
       </c>
       <c r="D28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E28" s="2">
-        <v>44784</v>
+        <v>44753</v>
       </c>
       <c r="F28" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H28" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="I28" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1450,22 +1474,22 @@
         <v>2022</v>
       </c>
       <c r="C29">
-        <v>48312</v>
+        <v>57060</v>
       </c>
       <c r="D29" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="E29" s="2">
-        <v>44833</v>
+        <v>44784</v>
       </c>
       <c r="F29" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H29" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="I29" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1476,22 +1500,22 @@
         <v>2022</v>
       </c>
       <c r="C30">
-        <v>47117</v>
+        <v>48312</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="E30" s="2">
-        <v>44862</v>
+        <v>44833</v>
       </c>
       <c r="F30" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H30" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="I30" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1502,22 +1526,22 @@
         <v>2022</v>
       </c>
       <c r="C31">
-        <v>42583</v>
+        <v>47117</v>
       </c>
       <c r="D31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E31" s="2">
-        <v>44872</v>
+        <v>44862</v>
       </c>
       <c r="F31" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="H31" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="I31" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1528,22 +1552,22 @@
         <v>2022</v>
       </c>
       <c r="C32">
-        <v>44550</v>
+        <v>42583</v>
       </c>
       <c r="D32" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E32" s="2">
-        <v>44894</v>
+        <v>44872</v>
       </c>
       <c r="F32" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H32" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="I32" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1554,22 +1578,22 @@
         <v>2022</v>
       </c>
       <c r="C33">
-        <v>50482.04</v>
+        <v>44550</v>
       </c>
       <c r="D33" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E33" s="2">
-        <v>44831</v>
+        <v>44894</v>
       </c>
       <c r="F33" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="H33" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="I33" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1577,25 +1601,25 @@
         <v>41</v>
       </c>
       <c r="B34">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C34">
-        <v>52852.17</v>
+        <v>50482.04</v>
       </c>
       <c r="D34" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="E34" s="2">
-        <v>44936</v>
-      </c>
-      <c r="G34" t="s">
-        <v>87</v>
+        <v>44831</v>
+      </c>
+      <c r="F34" t="s">
+        <v>81</v>
       </c>
       <c r="H34" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="I34" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1606,19 +1630,22 @@
         <v>2023</v>
       </c>
       <c r="C35">
-        <v>58165</v>
+        <v>52852.17</v>
       </c>
       <c r="D35" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E35" s="2">
-        <v>45009</v>
+        <v>44936</v>
+      </c>
+      <c r="G35" t="s">
+        <v>93</v>
       </c>
       <c r="H35" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="I35" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1629,19 +1656,19 @@
         <v>2023</v>
       </c>
       <c r="C36">
-        <v>57600</v>
+        <v>43967</v>
       </c>
       <c r="D36" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E36" s="2">
-        <v>45072</v>
+        <v>44904</v>
       </c>
       <c r="H36" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="I36" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1652,19 +1679,19 @@
         <v>2023</v>
       </c>
       <c r="C37">
-        <v>46106</v>
+        <v>58165</v>
       </c>
       <c r="D37" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E37" s="2">
-        <v>45091</v>
+        <v>45009</v>
       </c>
       <c r="H37" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="I37" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1675,19 +1702,19 @@
         <v>2023</v>
       </c>
       <c r="C38">
-        <v>44064</v>
+        <v>57600</v>
       </c>
       <c r="D38" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="E38" s="2">
-        <v>45092</v>
+        <v>45072</v>
       </c>
       <c r="H38" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="I38" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1698,22 +1725,19 @@
         <v>2023</v>
       </c>
       <c r="C39">
-        <v>44547</v>
+        <v>46106</v>
       </c>
       <c r="D39" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E39" s="2">
-        <v>45177</v>
-      </c>
-      <c r="G39" t="s">
-        <v>88</v>
+        <v>45091</v>
       </c>
       <c r="H39" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="I39" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1724,22 +1748,19 @@
         <v>2023</v>
       </c>
       <c r="C40">
-        <v>40172</v>
+        <v>44064</v>
       </c>
       <c r="D40" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E40" s="2">
-        <v>45243</v>
-      </c>
-      <c r="G40" t="s">
-        <v>85</v>
+        <v>45092</v>
       </c>
       <c r="H40" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="I40" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1750,19 +1771,19 @@
         <v>2023</v>
       </c>
       <c r="C41">
-        <v>40892</v>
+        <v>58800</v>
       </c>
       <c r="D41" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E41" s="2">
-        <v>45272</v>
+        <v>45167</v>
       </c>
       <c r="H41" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="I41" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1770,22 +1791,25 @@
         <v>49</v>
       </c>
       <c r="B42">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C42">
-        <v>40925</v>
+        <v>44547</v>
       </c>
       <c r="D42" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E42" s="2">
-        <v>45301</v>
+        <v>45177</v>
+      </c>
+      <c r="G42" t="s">
+        <v>94</v>
       </c>
       <c r="H42" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="I42" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1793,22 +1817,25 @@
         <v>50</v>
       </c>
       <c r="B43">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C43">
-        <v>59316</v>
+        <v>40172</v>
       </c>
       <c r="D43" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E43" s="2">
-        <v>45345</v>
+        <v>45243</v>
+      </c>
+      <c r="G43" t="s">
+        <v>91</v>
       </c>
       <c r="H43" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="I43" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1816,22 +1843,22 @@
         <v>51</v>
       </c>
       <c r="B44">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C44">
-        <v>47491.62</v>
+        <v>40892</v>
       </c>
       <c r="D44" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E44" s="2">
-        <v>45370</v>
+        <v>45272</v>
       </c>
       <c r="H44" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="I44" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1842,19 +1869,19 @@
         <v>2024</v>
       </c>
       <c r="C45">
-        <v>50892</v>
+        <v>40925</v>
       </c>
       <c r="D45" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E45" s="2">
-        <v>45400</v>
+        <v>45301</v>
       </c>
       <c r="H45" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="I45" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1865,19 +1892,19 @@
         <v>2024</v>
       </c>
       <c r="C46">
-        <v>40956</v>
+        <v>59316</v>
       </c>
       <c r="D46" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E46" s="2">
-        <v>45329</v>
+        <v>45345</v>
       </c>
       <c r="H46" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="I46" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1888,19 +1915,19 @@
         <v>2024</v>
       </c>
       <c r="C47">
-        <v>59832</v>
+        <v>47491.62</v>
       </c>
       <c r="D47" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E47" s="2">
-        <v>45446</v>
+        <v>45370</v>
       </c>
       <c r="H47" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="I47" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1911,22 +1938,19 @@
         <v>2024</v>
       </c>
       <c r="C48">
-        <v>50400</v>
+        <v>50892</v>
       </c>
       <c r="D48" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E48" s="2">
-        <v>45447</v>
-      </c>
-      <c r="G48" t="s">
-        <v>85</v>
+        <v>45400</v>
       </c>
       <c r="H48" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="I48" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1937,19 +1961,22 @@
         <v>2024</v>
       </c>
       <c r="C49">
-        <v>55116</v>
+        <v>49332</v>
       </c>
       <c r="D49" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E49" s="2">
-        <v>45488</v>
+        <v>45433</v>
+      </c>
+      <c r="G49" t="s">
+        <v>95</v>
       </c>
       <c r="H49" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="I49" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -1960,19 +1987,19 @@
         <v>2024</v>
       </c>
       <c r="C50">
-        <v>41460</v>
+        <v>40956</v>
       </c>
       <c r="D50" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="E50" s="2">
-        <v>45516</v>
+        <v>45329</v>
       </c>
       <c r="H50" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="I50" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -1983,19 +2010,19 @@
         <v>2024</v>
       </c>
       <c r="C51">
-        <v>40152</v>
+        <v>59832</v>
       </c>
       <c r="D51" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E51" s="2">
-        <v>45467</v>
+        <v>45446</v>
       </c>
       <c r="H51" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="I51" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2006,19 +2033,22 @@
         <v>2024</v>
       </c>
       <c r="C52">
-        <v>49752</v>
+        <v>50400</v>
       </c>
       <c r="D52" t="s">
         <v>68</v>
       </c>
       <c r="E52" s="2">
-        <v>45526</v>
+        <v>45447</v>
+      </c>
+      <c r="G52" t="s">
+        <v>91</v>
       </c>
       <c r="H52" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="I52" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2029,19 +2059,111 @@
         <v>2024</v>
       </c>
       <c r="C53">
+        <v>55116</v>
+      </c>
+      <c r="D53" t="s">
+        <v>68</v>
+      </c>
+      <c r="E53" s="2">
+        <v>45488</v>
+      </c>
+      <c r="H53" t="s">
+        <v>110</v>
+      </c>
+      <c r="I53" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" t="s">
+        <v>61</v>
+      </c>
+      <c r="B54">
+        <v>2024</v>
+      </c>
+      <c r="C54">
+        <v>41460</v>
+      </c>
+      <c r="D54" t="s">
+        <v>69</v>
+      </c>
+      <c r="E54" s="2">
+        <v>45516</v>
+      </c>
+      <c r="H54" t="s">
+        <v>110</v>
+      </c>
+      <c r="I54" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" t="s">
+        <v>62</v>
+      </c>
+      <c r="B55">
+        <v>2024</v>
+      </c>
+      <c r="C55">
+        <v>40152</v>
+      </c>
+      <c r="D55" t="s">
+        <v>68</v>
+      </c>
+      <c r="E55" s="2">
+        <v>45467</v>
+      </c>
+      <c r="H55" t="s">
+        <v>109</v>
+      </c>
+      <c r="I55" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" t="s">
+        <v>63</v>
+      </c>
+      <c r="B56">
+        <v>2024</v>
+      </c>
+      <c r="C56">
+        <v>49752</v>
+      </c>
+      <c r="D56" t="s">
+        <v>73</v>
+      </c>
+      <c r="E56" s="2">
+        <v>45526</v>
+      </c>
+      <c r="H56" t="s">
+        <v>110</v>
+      </c>
+      <c r="I56" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" t="s">
+        <v>64</v>
+      </c>
+      <c r="B57">
+        <v>2024</v>
+      </c>
+      <c r="C57">
         <v>53700</v>
       </c>
-      <c r="D53" t="s">
-        <v>68</v>
-      </c>
-      <c r="E53" s="2">
+      <c r="D57" t="s">
+        <v>73</v>
+      </c>
+      <c r="E57" s="2">
         <v>45546</v>
       </c>
-      <c r="H53" t="s">
-        <v>103</v>
-      </c>
-      <c r="I53" t="s">
-        <v>104</v>
+      <c r="H57" t="s">
+        <v>110</v>
+      </c>
+      <c r="I57" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
